--- a/distance_data.xlsx
+++ b/distance_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaberoth/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{486CC8A1-5A5F-ED44-A2F8-539D2081DFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A54804-3F10-B54C-B18C-12B71253C4A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16260" xr2:uid="{C3940852-53D4-5D46-B9CB-80DB3F5BEB9A}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16200" xr2:uid="{C3940852-53D4-5D46-B9CB-80DB3F5BEB9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>% (big)</t>
+  </si>
+  <si>
+    <t>% (medium)</t>
+  </si>
+  <si>
+    <t>dist (big)</t>
+  </si>
+  <si>
+    <t>dist (medium)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82,6 +95,2151 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1962379702537182E-2"/>
+                  <c:y val="-0.33255431612715075"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0.54917037037036998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30625925925925901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.195566666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13482777777777699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9957407407407398E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5240740740740705E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9761111111111098E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8162962962962901E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0072222222222197E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3788888888888799E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8694444444444401E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4607407407407401E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8940740740740699E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6633333333333299E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4587037037037001E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3335185185185099E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1933333333333299E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.09E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.8259259259259202E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.1685185185185099E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.26666666666666E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.5851851851851801E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.1703703703703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.4574074074074004E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1518518518518502E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0759259259259204E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4203703703703697E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0D3-B84F-A859-984AD6A79244}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1179579696"/>
+        <c:axId val="1220336400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1179579696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1220336400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1220336400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1179579696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2831802274715662E-2"/>
+                  <c:y val="-0.41588764946048412"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.59482407407407401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22737962962962899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.119366666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3646296296296196E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9412962962962902E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5574074074074001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7081481481481401E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1114814814814802E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7001851851851799E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4124074074074001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.22481481481481E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.7277777777777692E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.4462962962962903E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3333333333333297E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5333333333333302E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7055555555555497E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0074074074073997E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5370370370370304E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.4740740740740704E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41F7-1A4B-A620-2DBFAD94F571}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1179070640"/>
+        <c:axId val="1163791696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1179070640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1163791696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1163791696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1179070640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3294B8FF-7668-A94D-AF81-48C2AA1563F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB69D62-09BB-E74A-BF36-A74D5FB6296F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,239 +2539,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928F7FD6-BEE4-9643-A7FF-E973424799B3}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.54917037037036998</v>
+      </c>
+      <c r="B2">
         <v>11</v>
       </c>
-      <c r="B1">
-        <v>0.54917037037036998</v>
+      <c r="C2">
+        <v>0.59482407407407401</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.30625925925925901</v>
+      </c>
+      <c r="B3">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>0.30625925925925901</v>
+      <c r="C3">
+        <v>0.22737962962962899</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.195566666666666</v>
+      </c>
+      <c r="B4">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>0.195566666666666</v>
+      <c r="C4">
+        <v>0.119366666666666</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.13482777777777699</v>
+      </c>
+      <c r="B5">
         <v>23</v>
       </c>
-      <c r="B4">
-        <v>0.13482777777777699</v>
+      <c r="C5">
+        <v>7.3646296296296196E-2</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9.9957407407407398E-2</v>
+      </c>
+      <c r="B6">
         <v>27</v>
       </c>
-      <c r="B5">
-        <v>9.9957407407407398E-2</v>
+      <c r="C6">
+        <v>4.9412962962962902E-2</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7.5240740740740705E-2</v>
+      </c>
+      <c r="B7">
         <v>31</v>
       </c>
-      <c r="B6">
-        <v>7.5240740740740705E-2</v>
+      <c r="C7">
+        <v>3.5574074074074001E-2</v>
+      </c>
+      <c r="D7">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5.9761111111111098E-2</v>
+      </c>
+      <c r="B8">
         <v>35</v>
       </c>
-      <c r="B7">
-        <v>5.9761111111111098E-2</v>
+      <c r="C8">
+        <v>2.7081481481481401E-2</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4.8162962962962901E-2</v>
+      </c>
+      <c r="B9">
         <v>39</v>
       </c>
-      <c r="B8">
-        <v>4.8162962962962901E-2</v>
+      <c r="C9">
+        <v>2.1114814814814802E-2</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4.0072222222222197E-2</v>
+      </c>
+      <c r="B10">
         <v>43</v>
       </c>
-      <c r="B9">
-        <v>4.0072222222222197E-2</v>
+      <c r="C10">
+        <v>1.7001851851851799E-2</v>
+      </c>
+      <c r="D10">
+        <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3.3788888888888799E-2</v>
+      </c>
+      <c r="B11">
         <v>47</v>
       </c>
-      <c r="B10">
-        <v>3.3788888888888799E-2</v>
+      <c r="C11">
+        <v>1.4124074074074001E-2</v>
+      </c>
+      <c r="D11">
+        <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2.8694444444444401E-2</v>
+      </c>
+      <c r="B12">
         <v>51</v>
       </c>
-      <c r="B11">
-        <v>2.8694444444444401E-2</v>
+      <c r="C12">
+        <v>1.22481481481481E-2</v>
+      </c>
+      <c r="D12">
+        <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2.4607407407407401E-2</v>
+      </c>
+      <c r="B13">
         <v>55</v>
       </c>
-      <c r="B12">
-        <v>2.4607407407407401E-2</v>
+      <c r="C13">
+        <v>9.7277777777777692E-3</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="B14">
         <v>59</v>
       </c>
-      <c r="B13">
-        <v>2.1399999999999999E-2</v>
+      <c r="C14">
+        <v>8.4462962962962903E-3</v>
+      </c>
+      <c r="D14">
+        <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1.8940740740740699E-2</v>
+      </c>
+      <c r="B15">
         <v>63</v>
       </c>
-      <c r="B14">
-        <v>1.8940740740740699E-2</v>
+      <c r="C15">
+        <v>7.3333333333333297E-3</v>
+      </c>
+      <c r="D15">
+        <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1.6633333333333299E-2</v>
+      </c>
+      <c r="B16">
         <v>67</v>
       </c>
-      <c r="B15">
-        <v>1.6633333333333299E-2</v>
+      <c r="C16">
+        <v>6.5333333333333302E-3</v>
+      </c>
+      <c r="D16">
+        <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1.4587037037037001E-2</v>
+      </c>
+      <c r="B17">
         <v>71</v>
       </c>
-      <c r="B16">
-        <v>1.4587037037037001E-2</v>
+      <c r="C17">
+        <v>5.7055555555555497E-3</v>
+      </c>
+      <c r="D17">
+        <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1.3335185185185099E-2</v>
+      </c>
+      <c r="B18">
         <v>75</v>
       </c>
-      <c r="B17">
-        <v>1.3335185185185099E-2</v>
+      <c r="C18">
+        <v>5.0074074074073997E-3</v>
+      </c>
+      <c r="D18">
+        <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1.1933333333333299E-2</v>
+      </c>
+      <c r="B19">
         <v>79</v>
       </c>
-      <c r="B18">
-        <v>1.1933333333333299E-2</v>
+      <c r="C19">
+        <v>4.5370370370370304E-3</v>
+      </c>
+      <c r="D19">
+        <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1.09E-2</v>
+      </c>
+      <c r="B20">
         <v>83</v>
       </c>
-      <c r="B19">
-        <v>1.09E-2</v>
+      <c r="C20">
+        <v>4.4740740740740704E-3</v>
+      </c>
+      <c r="D20">
+        <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>9.8259259259259202E-3</v>
+      </c>
+      <c r="B21">
         <v>87</v>
       </c>
-      <c r="B20">
-        <v>9.8259259259259202E-3</v>
-      </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>9.1685185185185099E-3</v>
+      </c>
+      <c r="B22">
         <v>91</v>
       </c>
-      <c r="B21">
-        <v>9.1685185185185099E-3</v>
-      </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8.26666666666666E-3</v>
+      </c>
+      <c r="B23">
         <v>95</v>
       </c>
-      <c r="B22">
-        <v>8.26666666666666E-3</v>
-      </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7.5851851851851801E-3</v>
+      </c>
+      <c r="B24">
         <v>99</v>
       </c>
-      <c r="B23">
-        <v>7.5851851851851801E-3</v>
-      </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7.1703703703703704E-3</v>
+      </c>
+      <c r="B25">
         <v>103</v>
       </c>
-      <c r="B24">
-        <v>7.1703703703703704E-3</v>
-      </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6.4574074074074004E-3</v>
+      </c>
+      <c r="B26">
         <v>107</v>
       </c>
-      <c r="B25">
-        <v>6.4574074074074004E-3</v>
-      </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6.1518518518518502E-3</v>
+      </c>
+      <c r="B27">
         <v>111</v>
       </c>
-      <c r="B26">
-        <v>6.1518518518518502E-3</v>
-      </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6.0759259259259204E-3</v>
+      </c>
+      <c r="B28">
         <v>115</v>
       </c>
-      <c r="B27">
-        <v>6.0759259259259204E-3</v>
-      </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5.4203703703703697E-3</v>
+      </c>
+      <c r="B29">
         <v>119</v>
-      </c>
-      <c r="B28">
-        <v>5.4203703703703697E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>